--- a/files/mysql/new_app/fund_tables.xlsx
+++ b/files/mysql/new_app/fund_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/PycharmProjects/fProject/files/mysql/new_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055AAD2B-5E8D-E04B-B302-55944F7F12D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237DA4C5-55CD-F145-80BF-AD121A558CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1040" windowWidth="23420" windowHeight="13340" xr2:uid="{4CF9F03E-96D5-044B-B2B2-6D7A471FFE3A}"/>
+    <workbookView xWindow="4780" yWindow="1060" windowWidth="23420" windowHeight="13340" xr2:uid="{4CF9F03E-96D5-044B-B2B2-6D7A471FFE3A}"/>
   </bookViews>
   <sheets>
     <sheet name="post" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +357,10 @@
   </si>
   <si>
     <t>not null</t>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -443,13 +443,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11FBE3D-9CFB-A84A-9F77-5B4FADE3BCDA}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -781,15 +781,15 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -813,7 +813,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -822,15 +822,15 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -839,18 +839,18 @@
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -859,32 +859,32 @@
         <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -896,12 +896,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -910,12 +910,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -924,26 +924,26 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -951,16 +951,16 @@
       <c r="C11" s="1">
         <v>32</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>82</v>
+      <c r="E11" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -968,11 +968,11 @@
       <c r="C12" s="1">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>82</v>
+      <c r="E12" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1">
@@ -983,15 +983,15 @@
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -1031,7 +1031,7 @@
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -1040,16 +1040,16 @@
         <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1058,30 +1058,30 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -1092,12 +1092,12 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="33" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -1106,19 +1106,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1126,12 +1126,12 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1142,12 +1142,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
@@ -1158,34 +1158,34 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21">
       <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="21">
       <c r="A28" s="1" t="s">
@@ -1225,25 +1225,25 @@
     </row>
     <row r="30" spans="1:6" ht="21">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
@@ -1253,15 +1253,15 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
@@ -1270,16 +1270,16 @@
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
@@ -1290,12 +1290,12 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
@@ -1306,12 +1306,12 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="21">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
@@ -1319,15 +1319,15 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="21">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
@@ -1338,15 +1338,15 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1384,15 +1384,15 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1416,39 +1416,39 @@
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1458,18 +1458,18 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1477,11 +1477,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
